--- a/Model_Parameter.xlsx
+++ b/Model_Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/185c352134c95a0e/Dokumente/Uni_Stoff/Bachelor Thesis/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\OneDrive\Dokumente\Uni_Stoff\Bachelor Thesis\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{FA83A6FB-5A43-4FB4-8231-235DDE36D675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2BC3BE30-9AE0-4A52-9BF3-CBEB5A370E97}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{FA83A6FB-5A43-4FB4-8231-235DDE36D675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{48DDFD69-4326-41F8-AFC6-0C86B30AD9D9}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="4365" windowWidth="18000" windowHeight="11055" xr2:uid="{F3800AA9-91BC-44F6-89F7-82C28B46C7D7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3800AA9-91BC-44F6-89F7-82C28B46C7D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,7 @@
         <v>0.21</v>
       </c>
       <c r="F2" s="1">
-        <v>7.6950000000000003</v>
+        <v>7.7214</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>0.21</v>
       </c>
       <c r="F3" s="1">
-        <v>7.702</v>
+        <v>7.7594000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>0.21</v>
       </c>
       <c r="F4" s="1">
-        <v>7.7634999999999996</v>
+        <v>7.7618</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>0.31</v>
       </c>
       <c r="F6" s="1">
-        <v>5.7111000000000001</v>
+        <v>5.9039999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>0.41</v>
       </c>
       <c r="F7" s="1">
-        <v>5.726</v>
+        <v>5.9157999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>0.21</v>
       </c>
       <c r="F8" s="1">
-        <v>5.7413999999999996</v>
+        <v>5.9353999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/Model_Parameter.xlsx
+++ b/Model_Parameter.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\OneDrive\Dokumente\Uni_Stoff\Bachelor Thesis\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{FA83A6FB-5A43-4FB4-8231-235DDE36D675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{48DDFD69-4326-41F8-AFC6-0C86B30AD9D9}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{FA83A6FB-5A43-4FB4-8231-235DDE36D675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3E60929E-7713-4399-9B27-F8DA72BDA95D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3800AA9-91BC-44F6-89F7-82C28B46C7D7}"/>
+    <workbookView xWindow="29595" yWindow="2115" windowWidth="17220" windowHeight="11385" xr2:uid="{F3800AA9-91BC-44F6-89F7-82C28B46C7D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>MSFT</t>
   </si>
@@ -55,6 +56,18 @@
   </si>
   <si>
     <t>ORCL</t>
+  </si>
+  <si>
+    <t>P: l_Start</t>
+  </si>
+  <si>
+    <t>P: b_Start</t>
+  </si>
+  <si>
+    <t>B: l_Start</t>
+  </si>
+  <si>
+    <t>B: b_Start</t>
   </si>
 </sst>
 </file>
@@ -410,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C21DC06-20D6-4425-A429-F29FCECAC706}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -434,45 +447,69 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="C2">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E2">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="F2" s="1">
-        <v>7.7214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.55105</v>
+      </c>
+      <c r="H2">
+        <v>1.5379</v>
+      </c>
+      <c r="I2">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="J2">
+        <v>8.8750869999999996E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.174878E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0.9</v>
+        <v>0.999</v>
       </c>
       <c r="C3">
-        <v>0.11</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="E3">
-        <v>0.21</v>
+        <v>0.157</v>
       </c>
       <c r="F3" s="1">
-        <v>7.7594000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.5420199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.9</v>
       </c>
@@ -489,47 +526,59 @@
         <v>7.7618</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="E6">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="F6" s="1">
-        <v>5.9039999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.5604800000000001</v>
+      </c>
+      <c r="H6">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="K6">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>0.9</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="E7">
-        <v>0.41</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="F7" s="1">
-        <v>5.9157999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.5601599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.9</v>
       </c>
@@ -546,10 +595,10 @@
         <v>5.9353999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -569,7 +618,7 @@
         <v>183.07730000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.9</v>
       </c>
@@ -586,7 +635,7 @@
         <v>183.95660000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.9</v>
       </c>
@@ -603,20 +652,268 @@
         <v>184.67850000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BB9ECD-6241-4BB6-9DBD-6C93BC469C5E}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.9</v>
+      </c>
+      <c r="C2">
+        <v>0.11</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>0.21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.7214</v>
+      </c>
+      <c r="H2">
+        <v>1.5379</v>
+      </c>
+      <c r="I2">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="J2">
+        <v>8.8750869999999996E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.174878E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.11</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.7594000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.9</v>
+      </c>
+      <c r="C4">
+        <v>0.11</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.21</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.7618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.91</v>
+      </c>
+      <c r="C6">
+        <v>0.09</v>
+      </c>
+      <c r="D6">
+        <v>0.26</v>
+      </c>
+      <c r="E6">
+        <v>0.39</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.5604800000000001</v>
+      </c>
+      <c r="H6">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="K6">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.9157999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>0.21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.9353999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>183.07730000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>183.95660000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>184.67850000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>